--- a/ScheduleOfVaccine.xlsx
+++ b/ScheduleOfVaccine.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -414,7 +414,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve"> Thu, 28 Apr </v>
+        <v xml:space="preserve"> Fri, 29 Apr </v>
       </c>
       <c r="B2" t="str">
         <v>Deen Dayal Upadhyay Hospital..</v>
@@ -432,12 +432,12 @@
         <v>#1</v>
       </c>
       <c r="G2" t="str">
-        <v>200 Slots</v>
+        <v>198 Slots</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> Thu, 28 Apr </v>
+        <v xml:space="preserve"> Fri, 29 Apr </v>
       </c>
       <c r="B3" t="str">
         <v>Deen Dayal Upadhyay Hospital..</v>
@@ -455,12 +455,12 @@
         <v>#2</v>
       </c>
       <c r="G3" t="str">
-        <v>299 Slots</v>
+        <v>290 Slots</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v xml:space="preserve"> Thu, 28 Apr </v>
+        <v xml:space="preserve"> Fri, 29 Apr </v>
       </c>
       <c r="B4" t="str">
         <v>Deen Dayal Upadhyay Hospital..</v>
@@ -478,12 +478,12 @@
         <v>Precaution</v>
       </c>
       <c r="G4" t="str">
-        <v>99 Slots</v>
+        <v>97 Slots</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v xml:space="preserve"> Thu, 28 Apr </v>
+        <v xml:space="preserve"> Fri, 29 Apr </v>
       </c>
       <c r="B5" t="str">
         <v>Deen Dayal Upadhyay Hospital..</v>
@@ -498,67 +498,67 @@
         <v>15 &amp; Above</v>
       </c>
       <c r="F5" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="G5" t="str">
-        <v>100 Slots</v>
+        <v>199 Slots</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v xml:space="preserve"> Thu, 28 Apr </v>
+        <v xml:space="preserve"> Fri, 29 Apr </v>
       </c>
       <c r="B6" t="str">
-        <v>UPHC Khairati Nagar</v>
+        <v>Deen Dayal Upadhyay Hospital..</v>
       </c>
       <c r="C6" t="str">
-        <v>Near Tigri Gol Chakkar Khairati Nagar Ghaziabad, Ghaziabad, Uttar Pradesh, 201009</v>
+        <v>Pandit Deen Dayal Hospital Pratap Vihar Ghaziabad, Ghaziabad, Uttar Pradesh, 201009</v>
       </c>
       <c r="D6" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="E6" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="F6" t="str">
-        <v>#1</v>
+        <v>#2</v>
       </c>
       <c r="G6" t="str">
-        <v>1 Slots</v>
+        <v>297 Slots</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v xml:space="preserve"> Thu, 28 Apr </v>
+        <v xml:space="preserve"> Fri, 29 Apr </v>
       </c>
       <c r="B7" t="str">
-        <v>UPHC Khairati Nagar</v>
+        <v>Deen Dayal Upadhyay Hospital..</v>
       </c>
       <c r="C7" t="str">
-        <v>Near Tigri Gol Chakkar Khairati Nagar Ghaziabad, Ghaziabad, Uttar Pradesh, 201009</v>
+        <v>Pandit Deen Dayal Hospital Pratap Vihar Ghaziabad, Ghaziabad, Uttar Pradesh, 201009</v>
       </c>
       <c r="D7" t="str">
-        <v>CORBEVAXFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="E7" t="str">
-        <v>12-14 Only</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="F7" t="str">
-        <v>#1</v>
+        <v>Precaution</v>
       </c>
       <c r="G7" t="str">
-        <v>292 Slots</v>
+        <v>99 Slots</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v xml:space="preserve"> Thu, 28 Apr </v>
+        <v xml:space="preserve"> Fri, 29 Apr </v>
       </c>
       <c r="B8" t="str">
-        <v>UPHC Khairati Nagar</v>
+        <v>UPHC Budh Vihar.</v>
       </c>
       <c r="C8" t="str">
-        <v>Near Tigri Gol Chakkar Khairati Nagar Ghaziabad, Ghaziabad, Uttar Pradesh, 201009</v>
+        <v>Near Budh Vihar Bahrampur Nai Basti Dundahera Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
       </c>
       <c r="D8" t="str">
         <v>CORBEVAXFree</v>
@@ -567,113 +567,113 @@
         <v>12-14 Only</v>
       </c>
       <c r="F8" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="G8" t="str">
-        <v>295 Slots</v>
+        <v>10 Slots</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v xml:space="preserve"> Thu, 28 Apr </v>
+        <v xml:space="preserve"> Fri, 29 Apr </v>
       </c>
       <c r="B9" t="str">
-        <v>UPHC Khairati Nagar</v>
+        <v>UPHC Budh Vihar.</v>
       </c>
       <c r="C9" t="str">
-        <v>Near Tigri Gol Chakkar Khairati Nagar Ghaziabad, Ghaziabad, Uttar Pradesh, 201009</v>
+        <v>Near Budh Vihar Bahrampur Nai Basti Dundahera Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
       </c>
       <c r="D9" t="str">
-        <v>COVAXINFree</v>
+        <v>CORBEVAXFree</v>
       </c>
       <c r="E9" t="str">
-        <v>15 &amp; Above</v>
+        <v>12-14 Only</v>
       </c>
       <c r="F9" t="str">
-        <v>#1</v>
+        <v>#2</v>
       </c>
       <c r="G9" t="str">
-        <v>1 Slots</v>
+        <v>98 Slots</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v xml:space="preserve"> Thu, 28 Apr </v>
+        <v xml:space="preserve"> Fri, 29 Apr </v>
       </c>
       <c r="B10" t="str">
-        <v>UPHC Mirzapur 12-14</v>
+        <v>UPHC Budh Vihar.</v>
       </c>
       <c r="C10" t="str">
-        <v>Chowdary Charan Singh Colony Block L Pratap Vihar Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
+        <v>Near Budh Vihar Bahrampur Nai Basti Dundahera Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
       </c>
       <c r="D10" t="str">
-        <v>CORBEVAXFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="E10" t="str">
-        <v>12-14 Only</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="F10" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="G10" t="str">
-        <v>98 Slots</v>
+        <v>10 Slots</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v xml:space="preserve"> Thu, 28 Apr </v>
+        <v xml:space="preserve"> Fri, 29 Apr </v>
       </c>
       <c r="B11" t="str">
-        <v>UPHC Vijay Nagar 1st...</v>
+        <v>UPHC Budh Vihar.</v>
       </c>
       <c r="C11" t="str">
-        <v>Central Samudayik Kendra Chadakya Chowk Sec 9 Ramleela Groun D, Ghaziabad, Uttar Pradesh, 201009</v>
+        <v>Near Budh Vihar Bahrampur Nai Basti Dundahera Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
       </c>
       <c r="D11" t="str">
-        <v>CORBEVAXFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="E11" t="str">
-        <v>12-14 Only</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="F11" t="str">
-        <v>#1</v>
+        <v>#2</v>
       </c>
       <c r="G11" t="str">
-        <v>298 Slots</v>
+        <v>100 Slots</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v xml:space="preserve"> Thu, 28 Apr </v>
+        <v xml:space="preserve"> Fri, 29 Apr </v>
       </c>
       <c r="B12" t="str">
-        <v>UPHC Vijay Nagar 1st...</v>
+        <v>UPHC Budh Vihar.</v>
       </c>
       <c r="C12" t="str">
-        <v>Central Samudayik Kendra Chadakya Chowk Sec 9 Ramleela Groun D, Ghaziabad, Uttar Pradesh, 201009</v>
+        <v>Near Budh Vihar Bahrampur Nai Basti Dundahera Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
       </c>
       <c r="D12" t="str">
-        <v>CORBEVAXFree</v>
+        <v>COVISHIELDFree</v>
       </c>
       <c r="E12" t="str">
-        <v>12-14 Only</v>
+        <v>18 &amp; Above</v>
       </c>
       <c r="F12" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="G12" t="str">
-        <v>294 Slots</v>
+        <v>10 Slots</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v xml:space="preserve"> Thu, 28 Apr </v>
+        <v xml:space="preserve"> Fri, 29 Apr </v>
       </c>
       <c r="B13" t="str">
-        <v>UPHC Vijay Nagar 1st...</v>
+        <v>UPHC Budh Vihar.</v>
       </c>
       <c r="C13" t="str">
-        <v>Central Samudayik Kendra Chadakya Chowk Sec 9 Ramleela Groun D, Ghaziabad, Uttar Pradesh, 201009</v>
+        <v>Near Budh Vihar Bahrampur Nai Basti Dundahera Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
       </c>
       <c r="D13" t="str">
         <v>COVISHIELDFree</v>
@@ -685,41 +685,41 @@
         <v>#2</v>
       </c>
       <c r="G13" t="str">
-        <v>78 Slots</v>
+        <v>99 Slots</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v xml:space="preserve"> Thu, 28 Apr </v>
+        <v xml:space="preserve"> Fri, 29 Apr </v>
       </c>
       <c r="B14" t="str">
-        <v>UPHC Vijay Nagar 1st...</v>
+        <v>UPHC Khairati Nagar</v>
       </c>
       <c r="C14" t="str">
-        <v>Central Samudayik Kendra Chadakya Chowk Sec 9 Ramleela Groun D, Ghaziabad, Uttar Pradesh, 201009</v>
+        <v>Near Tigri Gol Chakkar Khairati Nagar Ghaziabad, Ghaziabad, Uttar Pradesh, 201009</v>
       </c>
       <c r="D14" t="str">
-        <v>COVAXINFree</v>
+        <v>CORBEVAXFree</v>
       </c>
       <c r="E14" t="str">
-        <v>15 &amp; Above</v>
+        <v>12-14 Only</v>
       </c>
       <c r="F14" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="G14" t="str">
-        <v>94 Slots</v>
+        <v>299 Slots</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v xml:space="preserve"> Thu, 28 Apr </v>
+        <v xml:space="preserve"> Fri, 29 Apr </v>
       </c>
       <c r="B15" t="str">
-        <v>UPHC Vijay Nagar 2nd 12-14</v>
+        <v>UPHC Khairati Nagar</v>
       </c>
       <c r="C15" t="str">
-        <v>Near Bhim Nagar Nai Basti Dundahera Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
+        <v>Near Tigri Gol Chakkar Khairati Nagar Ghaziabad, Ghaziabad, Uttar Pradesh, 201009</v>
       </c>
       <c r="D15" t="str">
         <v>CORBEVAXFree</v>
@@ -728,7 +728,7 @@
         <v>12-14 Only</v>
       </c>
       <c r="F15" t="str">
-        <v>#1</v>
+        <v>#2</v>
       </c>
       <c r="G15" t="str">
         <v>298 Slots</v>
@@ -736,36 +736,36 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v xml:space="preserve"> Thu, 28 Apr </v>
+        <v xml:space="preserve"> Fri, 29 Apr </v>
       </c>
       <c r="B16" t="str">
-        <v>UPHC Vijay Nagar 2nd 12-14</v>
+        <v>UPHC Khairati Nagar</v>
       </c>
       <c r="C16" t="str">
-        <v>Near Bhim Nagar Nai Basti Dundahera Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
+        <v>Near Tigri Gol Chakkar Khairati Nagar Ghaziabad, Ghaziabad, Uttar Pradesh, 201009</v>
       </c>
       <c r="D16" t="str">
-        <v>CORBEVAXFree</v>
+        <v>COVISHIELDFree</v>
       </c>
       <c r="E16" t="str">
-        <v>12-14 Only</v>
+        <v>18 &amp; Above</v>
       </c>
       <c r="F16" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="G16" t="str">
-        <v>299 Slots</v>
+        <v>6 Slots</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v xml:space="preserve"> Thu, 28 Apr </v>
+        <v xml:space="preserve"> Fri, 29 Apr </v>
       </c>
       <c r="B17" t="str">
-        <v>UPHC Vijay Nagar 2nd.</v>
+        <v>UPHC Khairati Nagar</v>
       </c>
       <c r="C17" t="str">
-        <v>Near Bhim Nagar Nai Basti Dundahera Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
+        <v>Near Tigri Gol Chakkar Khairati Nagar Ghaziabad, Ghaziabad, Uttar Pradesh, 201009</v>
       </c>
       <c r="D17" t="str">
         <v>COVISHIELDFree</v>
@@ -774,125 +774,125 @@
         <v>18 &amp; Above</v>
       </c>
       <c r="F17" t="str">
-        <v>#1</v>
+        <v>#2</v>
       </c>
       <c r="G17" t="str">
-        <v>200 Slots</v>
+        <v>88 Slots</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v xml:space="preserve"> Thu, 28 Apr </v>
+        <v xml:space="preserve"> Fri, 29 Apr </v>
       </c>
       <c r="B18" t="str">
-        <v>UPHC Vijay Nagar 2nd.</v>
+        <v>UPHC Khairati Nagar</v>
       </c>
       <c r="C18" t="str">
-        <v>Near Bhim Nagar Nai Basti Dundahera Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
+        <v>Near Tigri Gol Chakkar Khairati Nagar Ghaziabad, Ghaziabad, Uttar Pradesh, 201009</v>
       </c>
       <c r="D18" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="E18" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="F18" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="G18" t="str">
-        <v>300 Slots</v>
+        <v>10 Slots</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v xml:space="preserve"> Thu, 28 Apr </v>
+        <v xml:space="preserve"> Fri, 29 Apr </v>
       </c>
       <c r="B19" t="str">
-        <v>UPHC Vijay Nagar 2nd.</v>
+        <v>UPHC Khairati Nagar</v>
       </c>
       <c r="C19" t="str">
-        <v>Near Bhim Nagar Nai Basti Dundahera Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
+        <v>Near Tigri Gol Chakkar Khairati Nagar Ghaziabad, Ghaziabad, Uttar Pradesh, 201009</v>
       </c>
       <c r="D19" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="E19" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="F19" t="str">
-        <v>Precaution</v>
+        <v>#2</v>
       </c>
       <c r="G19" t="str">
-        <v>100 Slots</v>
+        <v>96 Slots</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v xml:space="preserve"> Thu, 28 Apr </v>
+        <v xml:space="preserve"> Fri, 29 Apr </v>
       </c>
       <c r="B20" t="str">
-        <v>UPHC Vijay Nagar 2nd.</v>
+        <v>UPHC Mirzapur 12-14</v>
       </c>
       <c r="C20" t="str">
-        <v>Near Bhim Nagar Nai Basti Dundahera Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
+        <v>Chowdary Charan Singh Colony Block L Pratap Vihar Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
       </c>
       <c r="D20" t="str">
-        <v>COVAXINFree</v>
+        <v>CORBEVAXFree</v>
       </c>
       <c r="E20" t="str">
-        <v>15 &amp; Above</v>
+        <v>12-14 Only</v>
       </c>
       <c r="F20" t="str">
-        <v>#1</v>
+        <v>#2</v>
       </c>
       <c r="G20" t="str">
-        <v>200 Slots</v>
+        <v>99 Slots</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v xml:space="preserve"> Thu, 28 Apr </v>
+        <v xml:space="preserve"> Fri, 29 Apr </v>
       </c>
       <c r="B21" t="str">
-        <v>UPHC Vijay Nagar 2nd.</v>
+        <v>UPHC Vijay Nagar 1st...</v>
       </c>
       <c r="C21" t="str">
-        <v>Near Bhim Nagar Nai Basti Dundahera Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
+        <v>Central Samudayik Kendra Chadakya Chowk Sec 9 Ramleela Groun D, Ghaziabad, Uttar Pradesh, 201009</v>
       </c>
       <c r="D21" t="str">
-        <v>COVAXINFree</v>
+        <v>CORBEVAXFree</v>
       </c>
       <c r="E21" t="str">
-        <v>15 &amp; Above</v>
+        <v>12-14 Only</v>
       </c>
       <c r="F21" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="G21" t="str">
-        <v>300 Slots</v>
+        <v>296 Slots</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v xml:space="preserve"> Thu, 28 Apr </v>
+        <v xml:space="preserve"> Fri, 29 Apr </v>
       </c>
       <c r="B22" t="str">
-        <v>UPHC Vijay Nagar 2nd.</v>
+        <v>UPHC Vijay Nagar 1st...</v>
       </c>
       <c r="C22" t="str">
-        <v>Near Bhim Nagar Nai Basti Dundahera Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
+        <v>Central Samudayik Kendra Chadakya Chowk Sec 9 Ramleela Groun D, Ghaziabad, Uttar Pradesh, 201009</v>
       </c>
       <c r="D22" t="str">
-        <v>COVAXINFree</v>
+        <v>CORBEVAXFree</v>
       </c>
       <c r="E22" t="str">
-        <v>15 &amp; Above</v>
+        <v>12-14 Only</v>
       </c>
       <c r="F22" t="str">
-        <v>Precaution</v>
+        <v>#2</v>
       </c>
       <c r="G22" t="str">
-        <v>100 Slots</v>
+        <v>281 Slots</v>
       </c>
     </row>
     <row r="23">
@@ -900,22 +900,22 @@
         <v xml:space="preserve"> Fri, 29 Apr </v>
       </c>
       <c r="B23" t="str">
-        <v>UPHC Khairati Nagar</v>
+        <v>UPHC Vijay Nagar 1st...</v>
       </c>
       <c r="C23" t="str">
-        <v>Near Tigri Gol Chakkar Khairati Nagar Ghaziabad, Ghaziabad, Uttar Pradesh, 201009</v>
+        <v>Central Samudayik Kendra Chadakya Chowk Sec 9 Ramleela Groun D, Ghaziabad, Uttar Pradesh, 201009</v>
       </c>
       <c r="D23" t="str">
-        <v>CORBEVAXFree</v>
+        <v>COVISHIELDFree</v>
       </c>
       <c r="E23" t="str">
-        <v>12-14 Only</v>
+        <v>18 &amp; Above</v>
       </c>
       <c r="F23" t="str">
-        <v>#1</v>
+        <v>#2</v>
       </c>
       <c r="G23" t="str">
-        <v>300 Slots</v>
+        <v>88 Slots</v>
       </c>
     </row>
     <row r="24">
@@ -923,22 +923,22 @@
         <v xml:space="preserve"> Fri, 29 Apr </v>
       </c>
       <c r="B24" t="str">
-        <v>UPHC Khairati Nagar</v>
+        <v>UPHC Vijay Nagar 1st...</v>
       </c>
       <c r="C24" t="str">
-        <v>Near Tigri Gol Chakkar Khairati Nagar Ghaziabad, Ghaziabad, Uttar Pradesh, 201009</v>
+        <v>Central Samudayik Kendra Chadakya Chowk Sec 9 Ramleela Groun D, Ghaziabad, Uttar Pradesh, 201009</v>
       </c>
       <c r="D24" t="str">
-        <v>CORBEVAXFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="E24" t="str">
-        <v>12-14 Only</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="F24" t="str">
         <v>#2</v>
       </c>
       <c r="G24" t="str">
-        <v>298 Slots</v>
+        <v>97 Slots</v>
       </c>
     </row>
     <row r="25">
@@ -946,10 +946,10 @@
         <v xml:space="preserve"> Fri, 29 Apr </v>
       </c>
       <c r="B25" t="str">
-        <v>UPHC Mirzapur 12-14</v>
+        <v>UPHC Vijay Nagar 2nd 12-14</v>
       </c>
       <c r="C25" t="str">
-        <v>Chowdary Charan Singh Colony Block L Pratap Vihar Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
+        <v>Near Bhim Nagar Nai Basti Dundahera Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
       </c>
       <c r="D25" t="str">
         <v>CORBEVAXFree</v>
@@ -958,10 +958,10 @@
         <v>12-14 Only</v>
       </c>
       <c r="F25" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="G25" t="str">
-        <v>99 Slots</v>
+        <v>298 Slots</v>
       </c>
     </row>
     <row r="26">
@@ -969,10 +969,10 @@
         <v xml:space="preserve"> Fri, 29 Apr </v>
       </c>
       <c r="B26" t="str">
-        <v>UPHC Vijay Nagar 1st...</v>
+        <v>UPHC Vijay Nagar 2nd 12-14</v>
       </c>
       <c r="C26" t="str">
-        <v>Central Samudayik Kendra Chadakya Chowk Sec 9 Ramleela Groun D, Ghaziabad, Uttar Pradesh, 201009</v>
+        <v>Near Bhim Nagar Nai Basti Dundahera Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
       </c>
       <c r="D26" t="str">
         <v>CORBEVAXFree</v>
@@ -981,10 +981,10 @@
         <v>12-14 Only</v>
       </c>
       <c r="F26" t="str">
-        <v>#1</v>
+        <v>#2</v>
       </c>
       <c r="G26" t="str">
-        <v>299 Slots</v>
+        <v>297 Slots</v>
       </c>
     </row>
     <row r="27">
@@ -992,22 +992,22 @@
         <v xml:space="preserve"> Fri, 29 Apr </v>
       </c>
       <c r="B27" t="str">
-        <v>UPHC Vijay Nagar 1st...</v>
+        <v>UPHC Vijay Nagar 2nd.</v>
       </c>
       <c r="C27" t="str">
-        <v>Central Samudayik Kendra Chadakya Chowk Sec 9 Ramleela Groun D, Ghaziabad, Uttar Pradesh, 201009</v>
+        <v>Near Bhim Nagar Nai Basti Dundahera Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
       </c>
       <c r="D27" t="str">
-        <v>CORBEVAXFree</v>
+        <v>COVISHIELDFree</v>
       </c>
       <c r="E27" t="str">
-        <v>12-14 Only</v>
+        <v>18 &amp; Above</v>
       </c>
       <c r="F27" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="G27" t="str">
-        <v>299 Slots</v>
+        <v>10 Slots</v>
       </c>
     </row>
     <row r="28">
@@ -1015,10 +1015,10 @@
         <v xml:space="preserve"> Fri, 29 Apr </v>
       </c>
       <c r="B28" t="str">
-        <v>UPHC Vijay Nagar 1st...</v>
+        <v>UPHC Vijay Nagar 2nd.</v>
       </c>
       <c r="C28" t="str">
-        <v>Central Samudayik Kendra Chadakya Chowk Sec 9 Ramleela Groun D, Ghaziabad, Uttar Pradesh, 201009</v>
+        <v>Near Bhim Nagar Nai Basti Dundahera Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
       </c>
       <c r="D28" t="str">
         <v>COVISHIELDFree</v>
@@ -1030,7 +1030,7 @@
         <v>#2</v>
       </c>
       <c r="G28" t="str">
-        <v>94 Slots</v>
+        <v>100 Slots</v>
       </c>
     </row>
     <row r="29">
@@ -1038,10 +1038,10 @@
         <v xml:space="preserve"> Fri, 29 Apr </v>
       </c>
       <c r="B29" t="str">
-        <v>UPHC Vijay Nagar 1st...</v>
+        <v>UPHC Vijay Nagar 2nd.</v>
       </c>
       <c r="C29" t="str">
-        <v>Central Samudayik Kendra Chadakya Chowk Sec 9 Ramleela Groun D, Ghaziabad, Uttar Pradesh, 201009</v>
+        <v>Near Bhim Nagar Nai Basti Dundahera Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
       </c>
       <c r="D29" t="str">
         <v>COVAXINFree</v>
@@ -1050,10 +1050,10 @@
         <v>15 &amp; Above</v>
       </c>
       <c r="F29" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="G29" t="str">
-        <v>99 Slots</v>
+        <v>10 Slots</v>
       </c>
     </row>
     <row r="30">
@@ -1061,22 +1061,22 @@
         <v xml:space="preserve"> Fri, 29 Apr </v>
       </c>
       <c r="B30" t="str">
-        <v>UPHC Vijay Nagar 2nd 12-14</v>
+        <v>UPHC Vijay Nagar 2nd.</v>
       </c>
       <c r="C30" t="str">
         <v>Near Bhim Nagar Nai Basti Dundahera Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
       </c>
       <c r="D30" t="str">
-        <v>CORBEVAXFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="E30" t="str">
-        <v>12-14 Only</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="F30" t="str">
-        <v>#1</v>
+        <v>#2</v>
       </c>
       <c r="G30" t="str">
-        <v>299 Slots</v>
+        <v>100 Slots</v>
       </c>
     </row>
     <row r="31">
@@ -1084,7 +1084,7 @@
         <v xml:space="preserve"> Fri, 29 Apr </v>
       </c>
       <c r="B31" t="str">
-        <v>UPHC Vijay Nagar 2nd 12-14</v>
+        <v>UPHC Vijay Nagar 2nd.</v>
       </c>
       <c r="C31" t="str">
         <v>Near Bhim Nagar Nai Basti Dundahera Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
@@ -1096,21 +1096,21 @@
         <v>12-14 Only</v>
       </c>
       <c r="F31" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="G31" t="str">
-        <v>298 Slots</v>
+        <v>10 Slots</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v xml:space="preserve"> Sat, 30 Apr </v>
+        <v xml:space="preserve"> Fri, 29 Apr </v>
       </c>
       <c r="B32" t="str">
-        <v>UPHC Khairati Nagar</v>
+        <v>UPHC Vijay Nagar 2nd.</v>
       </c>
       <c r="C32" t="str">
-        <v>Near Tigri Gol Chakkar Khairati Nagar Ghaziabad, Ghaziabad, Uttar Pradesh, 201009</v>
+        <v>Near Bhim Nagar Nai Basti Dundahera Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
       </c>
       <c r="D32" t="str">
         <v>CORBEVAXFree</v>
@@ -1119,10 +1119,10 @@
         <v>12-14 Only</v>
       </c>
       <c r="F32" t="str">
-        <v>#1</v>
+        <v>#2</v>
       </c>
       <c r="G32" t="str">
-        <v>297 Slots</v>
+        <v>100 Slots</v>
       </c>
     </row>
     <row r="33">
@@ -1130,10 +1130,10 @@
         <v xml:space="preserve"> Sat, 30 Apr </v>
       </c>
       <c r="B33" t="str">
-        <v>UPHC Khairati Nagar</v>
+        <v>UPHC Budh Vihar.</v>
       </c>
       <c r="C33" t="str">
-        <v>Near Tigri Gol Chakkar Khairati Nagar Ghaziabad, Ghaziabad, Uttar Pradesh, 201009</v>
+        <v>Near Budh Vihar Bahrampur Nai Basti Dundahera Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
       </c>
       <c r="D33" t="str">
         <v>CORBEVAXFree</v>
@@ -1145,7 +1145,7 @@
         <v>#2</v>
       </c>
       <c r="G33" t="str">
-        <v>288 Slots</v>
+        <v>100 Slots</v>
       </c>
     </row>
     <row r="34">
@@ -1153,22 +1153,22 @@
         <v xml:space="preserve"> Sat, 30 Apr </v>
       </c>
       <c r="B34" t="str">
-        <v>UPHC Mirzapur 12-14</v>
+        <v>UPHC Budh Vihar.</v>
       </c>
       <c r="C34" t="str">
-        <v>Chowdary Charan Singh Colony Block L Pratap Vihar Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
+        <v>Near Budh Vihar Bahrampur Nai Basti Dundahera Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
       </c>
       <c r="D34" t="str">
-        <v>CORBEVAXFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="E34" t="str">
-        <v>12-14 Only</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="F34" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="G34" t="str">
-        <v>94 Slots</v>
+        <v>10 Slots</v>
       </c>
     </row>
     <row r="35">
@@ -1176,22 +1176,22 @@
         <v xml:space="preserve"> Sat, 30 Apr </v>
       </c>
       <c r="B35" t="str">
-        <v>UPHC Vijay Nagar 1st...</v>
+        <v>UPHC Budh Vihar.</v>
       </c>
       <c r="C35" t="str">
-        <v>Central Samudayik Kendra Chadakya Chowk Sec 9 Ramleela Groun D, Ghaziabad, Uttar Pradesh, 201009</v>
+        <v>Near Budh Vihar Bahrampur Nai Basti Dundahera Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
       </c>
       <c r="D35" t="str">
-        <v>CORBEVAXFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="E35" t="str">
-        <v>12-14 Only</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="F35" t="str">
-        <v>#1</v>
+        <v>#2</v>
       </c>
       <c r="G35" t="str">
-        <v>299 Slots</v>
+        <v>100 Slots</v>
       </c>
     </row>
     <row r="36">
@@ -1199,22 +1199,22 @@
         <v xml:space="preserve"> Sat, 30 Apr </v>
       </c>
       <c r="B36" t="str">
-        <v>UPHC Vijay Nagar 1st...</v>
+        <v>UPHC Budh Vihar.</v>
       </c>
       <c r="C36" t="str">
-        <v>Central Samudayik Kendra Chadakya Chowk Sec 9 Ramleela Groun D, Ghaziabad, Uttar Pradesh, 201009</v>
+        <v>Near Budh Vihar Bahrampur Nai Basti Dundahera Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
       </c>
       <c r="D36" t="str">
-        <v>CORBEVAXFree</v>
+        <v>COVISHIELDFree</v>
       </c>
       <c r="E36" t="str">
-        <v>12-14 Only</v>
+        <v>18 &amp; Above</v>
       </c>
       <c r="F36" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="G36" t="str">
-        <v>285 Slots</v>
+        <v>10 Slots</v>
       </c>
     </row>
     <row r="37">
@@ -1222,10 +1222,10 @@
         <v xml:space="preserve"> Sat, 30 Apr </v>
       </c>
       <c r="B37" t="str">
-        <v>UPHC Vijay Nagar 1st...</v>
+        <v>UPHC Budh Vihar.</v>
       </c>
       <c r="C37" t="str">
-        <v>Central Samudayik Kendra Chadakya Chowk Sec 9 Ramleela Groun D, Ghaziabad, Uttar Pradesh, 201009</v>
+        <v>Near Budh Vihar Bahrampur Nai Basti Dundahera Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
       </c>
       <c r="D37" t="str">
         <v>COVISHIELDFree</v>
@@ -1237,7 +1237,7 @@
         <v>#2</v>
       </c>
       <c r="G37" t="str">
-        <v>97 Slots</v>
+        <v>100 Slots</v>
       </c>
     </row>
     <row r="38">
@@ -1245,22 +1245,22 @@
         <v xml:space="preserve"> Sat, 30 Apr </v>
       </c>
       <c r="B38" t="str">
-        <v>UPHC Vijay Nagar 1st...</v>
+        <v>UPHC Khairati Nagar</v>
       </c>
       <c r="C38" t="str">
-        <v>Central Samudayik Kendra Chadakya Chowk Sec 9 Ramleela Groun D, Ghaziabad, Uttar Pradesh, 201009</v>
+        <v>Near Tigri Gol Chakkar Khairati Nagar Ghaziabad, Ghaziabad, Uttar Pradesh, 201009</v>
       </c>
       <c r="D38" t="str">
-        <v>COVAXINFree</v>
+        <v>CORBEVAXFree</v>
       </c>
       <c r="E38" t="str">
-        <v>15 &amp; Above</v>
+        <v>12-14 Only</v>
       </c>
       <c r="F38" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="G38" t="str">
-        <v>99 Slots</v>
+        <v>295 Slots</v>
       </c>
     </row>
     <row r="39">
@@ -1268,10 +1268,10 @@
         <v xml:space="preserve"> Sat, 30 Apr </v>
       </c>
       <c r="B39" t="str">
-        <v>UPHC Vijay Nagar 2nd 12-14</v>
+        <v>UPHC Khairati Nagar</v>
       </c>
       <c r="C39" t="str">
-        <v>Near Bhim Nagar Nai Basti Dundahera Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
+        <v>Near Tigri Gol Chakkar Khairati Nagar Ghaziabad, Ghaziabad, Uttar Pradesh, 201009</v>
       </c>
       <c r="D39" t="str">
         <v>CORBEVAXFree</v>
@@ -1280,10 +1280,10 @@
         <v>12-14 Only</v>
       </c>
       <c r="F39" t="str">
-        <v>#1</v>
+        <v>#2</v>
       </c>
       <c r="G39" t="str">
-        <v>296 Slots</v>
+        <v>280 Slots</v>
       </c>
     </row>
     <row r="40">
@@ -1291,27 +1291,395 @@
         <v xml:space="preserve"> Sat, 30 Apr </v>
       </c>
       <c r="B40" t="str">
+        <v>UPHC Khairati Nagar</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Near Tigri Gol Chakkar Khairati Nagar Ghaziabad, Ghaziabad, Uttar Pradesh, 201009</v>
+      </c>
+      <c r="D40" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="E40" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="F40" t="str">
+        <v>#1</v>
+      </c>
+      <c r="G40" t="str">
+        <v>8 Slots</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v xml:space="preserve"> Sat, 30 Apr </v>
+      </c>
+      <c r="B41" t="str">
+        <v>UPHC Khairati Nagar</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Near Tigri Gol Chakkar Khairati Nagar Ghaziabad, Ghaziabad, Uttar Pradesh, 201009</v>
+      </c>
+      <c r="D41" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="E41" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="F41" t="str">
+        <v>#2</v>
+      </c>
+      <c r="G41" t="str">
+        <v>94 Slots</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v xml:space="preserve"> Sat, 30 Apr </v>
+      </c>
+      <c r="B42" t="str">
+        <v>UPHC Khairati Nagar</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Near Tigri Gol Chakkar Khairati Nagar Ghaziabad, Ghaziabad, Uttar Pradesh, 201009</v>
+      </c>
+      <c r="D42" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="E42" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="F42" t="str">
+        <v>#1</v>
+      </c>
+      <c r="G42" t="str">
+        <v>8 Slots</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v xml:space="preserve"> Sat, 30 Apr </v>
+      </c>
+      <c r="B43" t="str">
+        <v>UPHC Khairati Nagar</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Near Tigri Gol Chakkar Khairati Nagar Ghaziabad, Ghaziabad, Uttar Pradesh, 201009</v>
+      </c>
+      <c r="D43" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="E43" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="F43" t="str">
+        <v>#2</v>
+      </c>
+      <c r="G43" t="str">
+        <v>995 Slots</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v xml:space="preserve"> Sat, 30 Apr </v>
+      </c>
+      <c r="B44" t="str">
+        <v>UPHC Mirzapur 12-14</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Chowdary Charan Singh Colony Block L Pratap Vihar Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
+      </c>
+      <c r="D44" t="str">
+        <v>CORBEVAXFree</v>
+      </c>
+      <c r="E44" t="str">
+        <v>12-14 Only</v>
+      </c>
+      <c r="F44" t="str">
+        <v>#2</v>
+      </c>
+      <c r="G44" t="str">
+        <v>87 Slots</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v xml:space="preserve"> Sat, 30 Apr </v>
+      </c>
+      <c r="B45" t="str">
+        <v>UPHC Vijay Nagar 1st...</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Central Samudayik Kendra Chadakya Chowk Sec 9 Ramleela Groun D, Ghaziabad, Uttar Pradesh, 201009</v>
+      </c>
+      <c r="D45" t="str">
+        <v>CORBEVAXFree</v>
+      </c>
+      <c r="E45" t="str">
+        <v>12-14 Only</v>
+      </c>
+      <c r="F45" t="str">
+        <v>#1</v>
+      </c>
+      <c r="G45" t="str">
+        <v>298 Slots</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v xml:space="preserve"> Sat, 30 Apr </v>
+      </c>
+      <c r="B46" t="str">
+        <v>UPHC Vijay Nagar 1st...</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Central Samudayik Kendra Chadakya Chowk Sec 9 Ramleela Groun D, Ghaziabad, Uttar Pradesh, 201009</v>
+      </c>
+      <c r="D46" t="str">
+        <v>CORBEVAXFree</v>
+      </c>
+      <c r="E46" t="str">
+        <v>12-14 Only</v>
+      </c>
+      <c r="F46" t="str">
+        <v>#2</v>
+      </c>
+      <c r="G46" t="str">
+        <v>278 Slots</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v xml:space="preserve"> Sat, 30 Apr </v>
+      </c>
+      <c r="B47" t="str">
+        <v>UPHC Vijay Nagar 1st...</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Central Samudayik Kendra Chadakya Chowk Sec 9 Ramleela Groun D, Ghaziabad, Uttar Pradesh, 201009</v>
+      </c>
+      <c r="D47" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="E47" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="F47" t="str">
+        <v>#2</v>
+      </c>
+      <c r="G47" t="str">
+        <v>91 Slots</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v xml:space="preserve"> Sat, 30 Apr </v>
+      </c>
+      <c r="B48" t="str">
+        <v>UPHC Vijay Nagar 1st...</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Central Samudayik Kendra Chadakya Chowk Sec 9 Ramleela Groun D, Ghaziabad, Uttar Pradesh, 201009</v>
+      </c>
+      <c r="D48" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="E48" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="F48" t="str">
+        <v>#2</v>
+      </c>
+      <c r="G48" t="str">
+        <v>93 Slots</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v xml:space="preserve"> Sat, 30 Apr </v>
+      </c>
+      <c r="B49" t="str">
         <v>UPHC Vijay Nagar 2nd 12-14</v>
       </c>
-      <c r="C40" t="str">
+      <c r="C49" t="str">
         <v>Near Bhim Nagar Nai Basti Dundahera Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
       </c>
-      <c r="D40" t="str">
-        <v>CORBEVAXFree</v>
-      </c>
-      <c r="E40" t="str">
-        <v>12-14 Only</v>
-      </c>
-      <c r="F40" t="str">
-        <v>#2</v>
-      </c>
-      <c r="G40" t="str">
-        <v>294 Slots</v>
+      <c r="D49" t="str">
+        <v>CORBEVAXFree</v>
+      </c>
+      <c r="E49" t="str">
+        <v>12-14 Only</v>
+      </c>
+      <c r="F49" t="str">
+        <v>#1</v>
+      </c>
+      <c r="G49" t="str">
+        <v>297 Slots</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v xml:space="preserve"> Sat, 30 Apr </v>
+      </c>
+      <c r="B50" t="str">
+        <v>UPHC Vijay Nagar 2nd 12-14</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Near Bhim Nagar Nai Basti Dundahera Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
+      </c>
+      <c r="D50" t="str">
+        <v>CORBEVAXFree</v>
+      </c>
+      <c r="E50" t="str">
+        <v>12-14 Only</v>
+      </c>
+      <c r="F50" t="str">
+        <v>#2</v>
+      </c>
+      <c r="G50" t="str">
+        <v>291 Slots</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v xml:space="preserve"> Sat, 30 Apr </v>
+      </c>
+      <c r="B51" t="str">
+        <v>UPHC Vijay Nagar 2nd.</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Near Bhim Nagar Nai Basti Dundahera Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
+      </c>
+      <c r="D51" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="E51" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="F51" t="str">
+        <v>#1</v>
+      </c>
+      <c r="G51" t="str">
+        <v>10 Slots</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v xml:space="preserve"> Sat, 30 Apr </v>
+      </c>
+      <c r="B52" t="str">
+        <v>UPHC Vijay Nagar 2nd.</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Near Bhim Nagar Nai Basti Dundahera Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
+      </c>
+      <c r="D52" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="E52" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="F52" t="str">
+        <v>#2</v>
+      </c>
+      <c r="G52" t="str">
+        <v>97 Slots</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v xml:space="preserve"> Sat, 30 Apr </v>
+      </c>
+      <c r="B53" t="str">
+        <v>UPHC Vijay Nagar 2nd.</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Near Bhim Nagar Nai Basti Dundahera Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
+      </c>
+      <c r="D53" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="E53" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="F53" t="str">
+        <v>#1</v>
+      </c>
+      <c r="G53" t="str">
+        <v>9 Slots</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v xml:space="preserve"> Sat, 30 Apr </v>
+      </c>
+      <c r="B54" t="str">
+        <v>UPHC Vijay Nagar 2nd.</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Near Bhim Nagar Nai Basti Dundahera Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
+      </c>
+      <c r="D54" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="E54" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="F54" t="str">
+        <v>#2</v>
+      </c>
+      <c r="G54" t="str">
+        <v>99 Slots</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v xml:space="preserve"> Sat, 30 Apr </v>
+      </c>
+      <c r="B55" t="str">
+        <v>UPHC Vijay Nagar 2nd.</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Near Bhim Nagar Nai Basti Dundahera Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
+      </c>
+      <c r="D55" t="str">
+        <v>CORBEVAXFree</v>
+      </c>
+      <c r="E55" t="str">
+        <v>12-14 Only</v>
+      </c>
+      <c r="F55" t="str">
+        <v>#1</v>
+      </c>
+      <c r="G55" t="str">
+        <v>10 Slots</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v xml:space="preserve"> Sat, 30 Apr </v>
+      </c>
+      <c r="B56" t="str">
+        <v>UPHC Vijay Nagar 2nd.</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Near Bhim Nagar Nai Basti Dundahera Ghaziabad Uttar Pradesh 201009, Ghaziabad, Uttar Pradesh, 201009</v>
+      </c>
+      <c r="D56" t="str">
+        <v>CORBEVAXFree</v>
+      </c>
+      <c r="E56" t="str">
+        <v>12-14 Only</v>
+      </c>
+      <c r="F56" t="str">
+        <v>#2</v>
+      </c>
+      <c r="G56" t="str">
+        <v>100 Slots</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G40"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G56"/>
   </ignoredErrors>
 </worksheet>
 </file>